--- a/medicine/Enfance/Patricia_Lynch/Patricia_Lynch.xlsx
+++ b/medicine/Enfance/Patricia_Lynch/Patricia_Lynch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patricia Lynch (1898-1972) est une journaliste et femme de lettres irlandaise, auteure de littérature d'enfance et de jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Cork, elle suit sa scolarité et ses études en Irlande, en Angleterre, en Écosse et en Belgique. Elle devient journaliste et Sylvia Pankhurst l'envoie couvrir l'Insurrection de Pâques 1916 en Irlande pour The Workers' Dreadnought. Bien que fervente nationaliste irlandaise, elle parle avec un accent londonien tout le long de sa vie[2]. 
-Elle épouse l'historien socialiste R. M. Fox en 1922 et ils s'installent à Glasnevin. Elle publie en 1947 un livre semi-autobiographique, A Story-Teller's Childhood[2]. Elle meurt à Monkstown dans le comté de Dublin le 1er septembre 1972.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Cork, elle suit sa scolarité et ses études en Irlande, en Angleterre, en Écosse et en Belgique. Elle devient journaliste et Sylvia Pankhurst l'envoie couvrir l'Insurrection de Pâques 1916 en Irlande pour The Workers' Dreadnought. Bien que fervente nationaliste irlandaise, elle parle avec un accent londonien tout le long de sa vie. 
+Elle épouse l'historien socialiste R. M. Fox en 1922 et ils s'installent à Glasnevin. Elle publie en 1947 un livre semi-autobiographique, A Story-Teller's Childhood. Elle meurt à Monkstown dans le comté de Dublin le 1er septembre 1972.
 Ses livres les plus connus sont les aventures merveilleuses de l'âne Longues-Oreilles et de ses amis Seamus et Eileen, ainsi que celles du leprechaun Brogeen (Korik en traduction française).
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Œuvres traduites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Longues-Oreilles et ses amis (The Turf-cutter's Donkey: An Irish Story of Mystery and Adventure, 1934), G. T. Rageot, 1947.
 Longues-Oreilles en visite (The Donkey Goes Visiting: The Story of an Island Holiday, 1935), G. T. Rageot, 1948.
